--- a/tempolary/HelloCSharp.xlsx
+++ b/tempolary/HelloCSharp.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\PlayGround\tempolary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99377E54-2BDA-47BD-BB16-3699BFBBC600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0632C3F2-3A9F-4935-A675-79ED65A32819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AA7D325A-4A7A-44B5-90CF-04DAE77022C6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{AA7D325A-4A7A-44B5-90CF-04DAE77022C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Step1" sheetId="1" r:id="rId1"/>
     <sheet name="Step2" sheetId="2" r:id="rId2"/>
-    <sheet name="template" sheetId="3" r:id="rId3"/>
+    <sheet name="基礎の基礎" sheetId="5" r:id="rId3"/>
+    <sheet name="template" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="59">
   <si>
     <t>■ゴール</t>
     <phoneticPr fontId="1"/>
@@ -239,6 +240,337 @@
   </si>
   <si>
     <t>長方形、多角形、楕円、円弧、扇形を描く - .NET Tips (VB.NET,C#...) (dobon.net)</t>
+  </si>
+  <si>
+    <t>C#の基本構文を理解する</t>
+    <rPh sb="3" eb="5">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウブン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>リカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待する出力</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・For文を使って1~100までの数字をConsoleで出力してください</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Consoleに入力数字を入力して加算結果を出力してください</t>
+    <rPh sb="9" eb="11">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字じゃないもの入れたらエラー処理してください。</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力文字列の形成には、文字列補間式を使ってください</t>
+    <rPh sb="0" eb="2">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイセイ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ホカンシキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#で文字列の中に変数を埋め込む - Qiita</t>
+  </si>
+  <si>
+    <t>・For文とContinue文の組み合わせで、1~100までの偶数だけを出力してください</t>
+    <rPh sb="4" eb="5">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>グウスウ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>for, foreach,continue,break</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>インクリメント、デクリメント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cast</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>配列</t>
+    <rPh sb="0" eb="2">
+      <t>ハイレツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>条件演算子</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウケン</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>エンザンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if分</t>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Switch文</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Property</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Constructor</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while文</t>
+    <rPh sb="5" eb="6">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・While文使って↑</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ForEach文を使って↑</t>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Swich文をつかって、入力に応じて出力を返してください</t>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が「日本酒」、「ビール」、「ワイン」→出力＝「醸造酒です」</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ニホンシュ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>ジョウゾウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力が「ブランデー」、「ウィスキー」→出力＝「蒸留酒です。」</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ジョウリュウシュ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>それ以外の文字　＝　「知りません。」</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・stringクラスを使って入力の最後の文字が[あ]かどうか判定して、True,Falseを出力して下さい。</t>
+    <rPh sb="11" eb="12">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>クダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓を使って簡単なプログラムが書ける＋なにものか説明できる。</t>
+    <rPh sb="2" eb="3">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンタン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・英数入力を小文字→大文字、大文字→小文字に変換して出力してください</t>
+    <rPh sb="1" eb="3">
+      <t>エイスウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1340,6 +1672,187 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95682</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1118EE6-C28F-8708-A7D8-38461DA0C2D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1352550" y="1762125"/>
+          <a:ext cx="3277057" cy="3096057"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>57514</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>105001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81435866-9A8B-4998-FF2F-2757339FD90B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="6296025"/>
+          <a:ext cx="2610214" cy="1619476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>248005</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>104946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B544144F-EFD9-B9E8-A6C6-DA62F8CB7BCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="6496050"/>
+          <a:ext cx="2543530" cy="1228896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86129</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>9986</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{242945D0-517C-BEE4-64FC-EBF17D7324EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="5657850"/>
+          <a:ext cx="2896004" cy="3305636"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1639,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8901B9CA-9C6D-4397-95E1-F8DDDA9F3ABC}">
   <dimension ref="B2:S119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="BF50" sqref="BF50"/>
     </sheetView>
   </sheetViews>
@@ -1849,6 +2362,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A904E45B-F733-42F5-AF95-232701DF373C}">
+  <dimension ref="C3:R96"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="X93" sqref="X93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.85546875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="D61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="E62" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>36</v>
+      </c>
+      <c r="R62" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="4:18" x14ac:dyDescent="0.35">
+      <c r="P64" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D75" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E77" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="78" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E78" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="79" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D82" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="E96" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="R62" r:id="rId1" display="https://qiita.com/YoshijiGates/items/3e88a8aee51001014ed7" xr:uid="{7D6EF8E8-CA0F-4C93-BE60-02408E723717}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F21799-6D74-4C25-B9A6-100806CA9E0E}">
   <dimension ref="A1"/>
   <sheetViews>
